--- a/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 34,51</t>
+          <t>-29,3; 46,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 13,19</t>
+          <t>-2,22; 19,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 20,65</t>
+          <t>-11,23; 28,92</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>139,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>52,12%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,47; 564,46</t>
+          <t>-92,99; 854,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 542,18</t>
+          <t>-51,29; 941,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 310,73</t>
+          <t>-71,2; 442,74</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 9,98</t>
+          <t>-1,03; 11,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,25</t>
+          <t>-6,21; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,99</t>
+          <t>-2,53; 6,77</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,64%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>23,88%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 217,69</t>
+          <t>-18,16; 248,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 30,83</t>
+          <t>-44,81; 81,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 58,05</t>
+          <t>-21,2; 93,99</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,3</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,09</t>
+          <t>-10,68; 5,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 5,72</t>
+          <t>-10,44; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 2,57</t>
+          <t>-7,57; 3,35</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,51%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,98%</t>
+          <t>-15,21%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 53,15</t>
+          <t>-60,89; 69,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 40,85</t>
+          <t>-49,6; 41,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 19,98</t>
+          <t>-42,15; 26,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 125,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 20,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 42,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 11,55</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 4,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 6,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 125,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-28,26; 46,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 56,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.525030239214278</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.22559289919734</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.413759061816427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,3; 46,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 19,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 28,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.57129716045351</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5352433117809817</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.32897995503873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>27,34%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>139,83%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>52,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>38.64713046384976</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.13907990940245</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.96881481510062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-92,99; 854,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-51,29; 941,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-71,2; 442,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1846267013386772</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.655785393153799</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4930679570254772</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.404401460981648</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.7013869436228897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 11,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 6,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 6,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.683121538746822</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>10.51223459444446</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.493047160608741</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>65,98%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,79%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.479630346248253</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1544663153912412</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.315775852228537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,16; 248,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-44,81; 81,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 93,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.188320491898327</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.812064766312395</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.825207572766881</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.44301195170681</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.909430343832574</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.272751425378596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 5,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 5,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 3,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6012400474107072</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01231202643608636</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2312673064762271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-21,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-11,7%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-15,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2322571730883191</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4350795371981981</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2375027489683218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-60,89; 69,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-49,6; 41,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-42,15; 26,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2.560266390664522</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.9538490429340614</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9108883876758503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.76145399792976</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.894688529977245</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.25598707881189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.83186376427294</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.35991240405396</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.578283487722864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.164872720390202</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.434900631682966</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.267608753449422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.3320614309824517</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1100581120231345</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2036382768533426</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.7066491259749943</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4751849577549818</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4980113111807474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 11,55</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 4,69</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 6,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.364741626442159</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4713951123152749</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1690755755755653</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>19,52%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.10021233330442</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5469691156891526</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.803401045520305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-36,74; 125,51</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-28,26; 46,3</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 56,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.849498894134622</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.811070473349687</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.810751364380328</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.465078332489407</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.432393504330753</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.845682538848326</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.08911902497042491</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03985168650465781</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.06141765675769723</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4306394246489295</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2984384088064782</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2453737157470392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.9014200556223472</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4742820796470266</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.4261625651825685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
